--- a/sources/data/_raw/searches.xlsx
+++ b/sources/data/_raw/searches.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20191015-campaign/sources/data/_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F33A9D-2C6E-9245-B82B-D9753D753821}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57FF8A-5692-274A-928C-15442E2F9A7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="460" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="460" windowWidth="31280" windowHeight="19020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="281">
   <si>
     <t>2020 Campaign Tracker</t>
   </si>
@@ -914,16 +915,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,6 +941,2392 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amy Klobuchar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$254</c:f>
+              <c:strCache>
+                <c:ptCount val="253"/>
+                <c:pt idx="0">
+                  <c:v>2019-09-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019-09-09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019-09-08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019-09-07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019-09-06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019-09-05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019-09-04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019-09-03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019-09-02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019-09-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019-08-31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019-08-30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2019-08-29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019-08-28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019-08-27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019-08-26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019-08-25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019-08-24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019-08-23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019-08-22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2019-08-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019-08-20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019-08-19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019-08-18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019-08-17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2019-08-16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019-08-15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019-08-14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2019-08-13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019-08-12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2019-08-11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2019-08-10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019-08-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019-08-08</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2019-08-07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019-08-06</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2019-08-05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2019-08-04</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2019-08-03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019-08-02</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2019-08-01</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2019-07-31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2019-07-30</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2019-07-29</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2019-07-28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2019-07-27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2019-07-26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2019-07-25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2019-07-24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2019-07-23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2019-07-22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2019-07-21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2019-07-20</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2019-07-19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2019-07-18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2019-07-17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2019-07-16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2019-07-15</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2019-07-14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2019-07-13</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2019-07-12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2019-07-11</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2019-07-10</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2019-07-09</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2019-07-08</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2019-07-07</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2019-07-06</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2019-07-05</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2019-07-04</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2019-07-03</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2019-07-02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2019-07-01</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2019-06-30</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2019-06-29</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2019-06-28</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2019-06-27</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2019-06-26</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2019-06-25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2019-06-24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2019-06-23</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2019-06-22</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2019-06-21</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2019-06-20</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2019-06-19</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2019-06-18</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2019-06-17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2019-06-16</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2019-06-15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2019-06-14</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2019-06-13</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2019-06-12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2019-06-11</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2019-06-10</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2019-06-09</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2019-06-08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2019-06-07</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2019-06-06</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2019-06-05</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2019-06-04</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2019-06-03</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2019-06-02</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2019-06-01</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2019-05-31</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2019-05-30</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2019-05-29</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2019-05-28</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2019-05-27</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2019-05-26</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2019-05-25</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2019-05-24</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2019-05-23</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2019-05-22</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2019-05-21</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2019-05-20</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2019-05-19</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2019-05-18</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2019-05-17</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2019-05-16</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2019-05-15</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2019-05-14</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2019-05-13</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2019-05-12</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2019-05-11</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2019-05-10</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2019-05-09</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2019-05-08</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2019-05-07</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2019-05-06</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2019-05-05</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2019-05-04</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2019-05-03</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2019-05-02</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2019-05-01</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2019-04-30</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2019-04-29</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2019-04-28</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2019-04-27</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2019-04-26</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2019-04-25</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2019-04-24</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2019-04-23</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2019-04-22</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2019-04-21</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2019-04-20</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2019-04-19</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2019-04-18</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2019-04-17</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2019-04-16</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2019-04-15</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2019-04-14</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2019-04-13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2019-04-12</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2019-04-11</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2019-04-10</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2019-04-09</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2019-04-08</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2019-04-07</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2019-04-06</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2019-04-05</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2019-04-04</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2019-04-03</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2019-04-02</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2019-04-01</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2019-03-31</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2019-03-30</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2019-03-29</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2019-03-28</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2019-03-27</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2019-03-26</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2019-03-25</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2019-03-24</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2019-03-23</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2019-03-22</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2019-03-21</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2019-03-20</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2019-03-19</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2019-03-18</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2019-03-17</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2019-03-16</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2019-03-15</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2019-03-14</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2019-03-13</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2019-03-12</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2019-03-11</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2019-03-10</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2019-03-09</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2019-03-08</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2019-03-07</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2019-03-06</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2019-03-05</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2019-03-04</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2019-03-03</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2019-03-02</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2019-03-01</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2019-02-28</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2019-02-27</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2019-02-26</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2019-02-25</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2019-02-24</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2019-02-23</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2019-02-22</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2019-02-21</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2019-02-20</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2019-02-19</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2019-02-18</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2019-02-17</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2019-02-16</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2019-02-15</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2019-02-14</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2019-02-13</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2019-02-12</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2019-02-11</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2019-02-10</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2019-02-09</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2019-02-08</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2019-02-07</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2019-02-06</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2019-02-05</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2019-02-04</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2019-02-03</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2019-02-02</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2019-02-01</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2019-01-31</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2019-01-30</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2019-01-29</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2019-01-28</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2019-01-27</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2019-01-26</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2019-01-25</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2019-01-24</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2019-01-23</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2019-01-22</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2019-01-21</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2019-01-20</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2019-01-19</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2019-01-18</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2019-01-17</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2019-01-16</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2019-01-15</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2019-01-14</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2019-01-13</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2019-01-12</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2019-01-11</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2019-01-10</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2019-01-09</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2019-01-08</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2019-01-07</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2019-01-06</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2019-01-05</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2019-01-04</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2019-01-03</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2019-01-02</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2019-01-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="253"/>
+                <c:pt idx="0">
+                  <c:v>9.2024539877300603E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6333197223356501E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2417934347478002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9575596816976093E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8496669838249294E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05540897097625E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2388663967611302E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0889292196007301E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8280098280098295E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6956521739130401E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6501809408926394E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5706806282722498E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6282225237449099E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1585835257890699E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8451436855120696E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8469838155958808E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.47930639438531E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1344054062509798E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3548726030995496E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.22199592668024E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5009376172021497E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2591815320042001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3358925986048299E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4147305981215996E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5901328273244801E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.33046370573273E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7001675041875996E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.6311605723370403E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6611157368859303E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.4205457463884404E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0657531639547101E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1033426894616001E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4264360379992502E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3348891481913592E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.33466901747075E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.03408503360776E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.45161290322581E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.25826746249395E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4650225857648601E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.681806740956E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9420001372777796E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8346555538059402E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.86974135244624E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8858040859088501E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.03336921420883E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.9285714285714298E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.06194690265487E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.0090090090090107E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.5984522785898503E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.5162569389373505E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.6463022508038593E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.1723083642716793E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.2099447513812199E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6842105263157901E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8292682926829298E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6736401673640201E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8461538461538501E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5655577299412901E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.7560975609756097E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.3044982698961892E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5936254980079698E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.3420229405630902E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.18577075098814E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.27959053103007E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9480519480519501E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3157894736842099E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.30363932645301E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.27931769722815E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0810810810810799E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.7164959686206103E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.09389243391067E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.69895726403371E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.8330644395938099E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.6906169449425503E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.80057592067609E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8425386087498299E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.1552693447817601E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.1301247771836003E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.0645161290322596E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.9825436408977497E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.5106382978723406E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.26143172500788E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.45454545454545E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9441069258809202E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0413180110826E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6918730986527606E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.5877277085330802E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.64880461665293E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.7021822849807397E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.9005175388154099E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.8691796008869197E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8264840182648401E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2807424593967496E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.07913669064748E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.97628458498024E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.1954022988505694E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.9585062240663894E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.6514745308310997E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.7703270601132803E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.7469335054874099E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.06780565936999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.6501809408926394E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8216318785578799E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.98128783709411E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.7339556592765499E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.9702970297029702E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.00755667506297E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.06951871657754E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.7087378640776708E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.2236740968485807E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.5471698113207496E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.6225165562913899E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.37931034482759E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3122949539134499E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.52413209144793E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.43712574850299E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.5172413793103401E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4724747615594801E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.6338028169014096E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.1632653061224497E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.7142857142857099E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.5550035486160399E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.5897435897435902E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.0404172099087406E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.37277332897532E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.6460905349794198E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.42095914742451E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.32013201320132E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.8090452261306501E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.7059301380991099E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.82397238782554E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.0439321444106101E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.06524633821571E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.1379800853485099E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.5061960195268503E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.9612518628912098E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.5856871066881303E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.5677052714089701E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.0296598707400601E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.7098103874690799E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.9524913093858597E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.8372472190811797E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.3840830449827E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.7911714770797996E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.3676814988290398E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.7241003271537592E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9.6969696969697004E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.9875311720698296E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.7369439071566697E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.64818355640535E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.3840830449827E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.8277886497064592E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9.3676814988290398E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.2474226804123696E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.00553041729512E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.0810810810810799E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.4893378226711599E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.3196544276457903E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8.9585666293393092E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.3421439060205604E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.5075376884422099E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.7911714770797996E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.5444015444015399E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.22699386503067E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.6045627376425803E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.5503875968992199E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.2012012012012E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.90677966101695E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.8072289156626498E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.1661807580174899E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.3457943925233603E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.4084507042253501E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.58940397350993E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.07913669064748E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.5270758122743701E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.9522862823061605E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.1255742725880597E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.62178567487032E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.52477763659466E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.31004366812227E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.10752191970466E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.2360248447205001E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.3076923076923099E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.6535137166478801E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.9047619047619001E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.1505376344085999E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.0547945205479499E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.01005025125628E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.3529411764705899E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.62162162162162E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.88679245283019E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.3904382470119501E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.7906976744186001E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.1578947368420998E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.2401746724890799E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6.7132867132867105E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.17592181252776501</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.2332761578044603E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.62438490978677E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.4224598930481298E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>8.5056113408151196E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>7.1428571428571397E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5.0034746351633103E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6.9015097052480198E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5.01043841336117E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6.3618290258449298E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.2909535452322806E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.159911932558881</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.324487146195793</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.34440882417439</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.114814193944263</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>8.4321475625823497E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9.3158934788745706E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>7.0561237216263395E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.8957345971564E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.1235955056179799E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.4851485148514899E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.54499806875241E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.0719390185802801E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.3165467625899297E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.4308681672025697E-3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>8.5767194048276506E-3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.4393809114359399E-3</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.24869927159209E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6.5789473684210497E-3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>6.5005417118093201E-3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6.4377682403433502E-3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7.8834209268991897E-3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>7.41717488050107E-3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.12834978843441E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2.96296296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.4817927170868299E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.0586245772266098E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.4742729306487698E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>8.6786296900489401E-3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>6.4239828693790097E-3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3.80348652931854E-3</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.6666666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2.17983651226158E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>9.5057034220532299E-3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.1797752808988799E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.18364418938307E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.2010509195546099E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2.1480878763222098E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.2197664687075E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.7389379635736797E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.35949326185424E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78B3-EC4C-A05F-57CA2A817495}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="190417423"/>
+        <c:axId val="190419103"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190417423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190419103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190419103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190417423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2F02CA-13D9-5749-B4B1-6B21C3610461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1240,11 +3628,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="3" width="23.33203125" customWidth="1"/>
@@ -1259,37 +3647,37 @@
     <col min="26" max="26" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1369,7 +3757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1449,7 +3837,7 @@
         <v>4.2725679228746696E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1529,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1609,7 +3997,7 @@
         <v>4.0032025620496403E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1689,7 +4077,7 @@
         <v>3.9787798408488098E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1769,7 +4157,7 @@
         <v>3.5680304471931499E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1849,7 +4237,7 @@
         <v>2.6385224274406301E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +4317,7 @@
         <v>4.0485829959514196E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2009,7 +4397,7 @@
         <v>4.8396854204476704E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2089,7 +4477,7 @@
         <v>4.9140049140049104E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2169,7 +4557,7 @@
         <v>4.3478260869565201E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2249,7 +4637,7 @@
         <v>4.8250904704463197E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2329,7 +4717,7 @@
         <v>3.5994764397905801E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2409,7 +4797,7 @@
         <v>2.93984622342831E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2489,7 +4877,7 @@
         <v>3.0792917628945302E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2569,7 +4957,7 @@
         <v>3.7520252408970701E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2649,7 +5037,7 @@
         <v>4.1196665031878396E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2729,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2809,7 +5197,7 @@
         <v>4.3800644495197603E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2889,7 +5277,7 @@
         <v>3.9401103230890496E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2969,7 +5357,7 @@
         <v>3.0549898167006101E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -3049,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3129,7 +5517,7 @@
         <v>3.1479538300104898E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3209,7 +5597,7 @@
         <v>3.9485807046022899E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3289,7 +5677,7 @@
         <v>3.7073652990607998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3369,7 +5757,7 @@
         <v>3.79506641366224E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3449,7 +5837,7 @@
         <v>3.5218156916454698E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3529,7 +5917,7 @@
         <v>3.3500837520937998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -3609,7 +5997,7 @@
         <v>3.8155802861685201E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -3689,7 +6077,7 @@
         <v>3.33055786844296E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3769,7 +6157,7 @@
         <v>3.2102728731942202E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3849,7 +6237,7 @@
         <v>2.47406984489485E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3929,7 +6317,7 @@
         <v>5.1033426894616001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -4009,7 +6397,7 @@
         <v>4.7669311178453501E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -4089,7 +6477,7 @@
         <v>4.6674445740956796E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -4169,7 +6557,7 @@
         <v>3.8467703157557299E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -4249,7 +6637,7 @@
         <v>9.5454003102255092E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -4329,7 +6717,7 @@
         <v>4.8387096774193603E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -4409,7 +6797,7 @@
         <v>1.9357960961445401E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -4489,7 +6877,7 @@
         <v>3.6625564644121602E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -4569,7 +6957,7 @@
         <v>2.2824520055831402E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -4649,7 +7037,7 @@
         <v>1.64733337909259E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -4729,7 +7117,7 @@
         <v>1.25666548120465E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -4809,7 +7197,7 @@
         <v>6.23247117482082E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -4889,7 +7277,7 @@
         <v>4.1906757464641202E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -4969,7 +7357,7 @@
         <v>4.6296296296296302E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -5049,7 +7437,7 @@
         <v>4.5209903121636204E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
@@ -5129,7 +7517,7 @@
         <v>4.4642857142857097E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -5209,7 +7597,7 @@
         <v>5.3097345132743397E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -5289,7 +7677,7 @@
         <v>4.5045045045045001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -5369,7 +7757,7 @@
         <v>4.2992261392949304E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -5449,7 +7837,7 @@
         <v>4.3255713358806101E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -5529,7 +7917,7 @@
         <v>9.6463022508038593E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -5609,7 +7997,7 @@
         <v>1.04826381305962E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -5689,7 +8077,7 @@
         <v>1.47329650092081E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -5769,7 +8157,7 @@
         <v>8.4210526315789506E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -5849,7 +8237,7 @@
         <v>8.1300813008130107E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -5929,7 +8317,7 @@
         <v>8.3682008368200795E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -6009,7 +8397,7 @@
         <v>9.2307692307692299E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -6089,7 +8477,7 @@
         <v>7.8277886497064592E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -6169,7 +8557,7 @@
         <v>4.8780487804878099E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -6249,7 +8637,7 @@
         <v>4.1522491349481001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -6329,7 +8717,7 @@
         <v>1.5936254980079698E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -6409,7 +8797,7 @@
         <v>1.4598540145985399E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -6489,7 +8877,7 @@
         <v>1.18577075098814E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -6569,7 +8957,7 @@
         <v>1.4075495841330801E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -6649,7 +9037,7 @@
         <v>6.4935064935064896E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -6729,7 +9117,7 @@
         <v>6.5789473684210497E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -6809,7 +9197,7 @@
         <v>3.2590983161325401E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -6889,7 +9277,7 @@
         <v>6.39658848614073E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -6969,7 +9357,7 @@
         <v>5.40540540540541E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -7049,7 +9437,7 @@
         <v>4.3582479843103103E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -7129,7 +9517,7 @@
         <v>3.6463081130355501E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -7209,7 +9597,7 @@
         <v>2.4312496623264401E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -7289,7 +9677,7 @@
         <v>1.7082661098984501E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -7369,7 +9757,7 @@
         <v>1.6808044052710801E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -7449,7 +9837,7 @@
         <v>1.9490132926543999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -7529,7 +9917,7 @@
         <v>6.4088299434776801E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -7609,7 +9997,7 @@
         <v>7.1552693447817601E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -7689,7 +10077,7 @@
         <v>3.5650623885918001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -7769,7 +10157,7 @@
         <v>4.0322580645161298E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -7849,7 +10237,7 @@
         <v>3.7406483790523699E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -7929,7 +10317,7 @@
         <v>4.2553191489361703E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -8009,7 +10397,7 @@
         <v>5.8566472946794601E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -8089,7 +10477,7 @@
         <v>7.2727272727272701E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -8169,7 +10557,7 @@
         <v>9.7205346294046199E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>112</v>
       </c>
@@ -8249,7 +10637,7 @@
         <v>4.8346907657406402E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -8329,7 +10717,7 @@
         <v>8.6918730986527606E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>114</v>
       </c>
@@ -8409,7 +10797,7 @@
         <v>9.5877277085330802E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -8489,7 +10877,7 @@
         <v>1.64880461665293E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -8569,7 +10957,7 @@
         <v>7.7021822849807397E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -8649,7 +11037,7 @@
         <v>6.9005175388154099E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -8729,7 +11117,7 @@
         <v>8.8691796008869197E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -8809,7 +11197,7 @@
         <v>9.1324200913242004E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -8889,7 +11277,7 @@
         <v>9.2807424593967496E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -8969,7 +11357,7 @@
         <v>1.07913669064748E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -9049,7 +11437,7 @@
         <v>9.8814229249011894E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>123</v>
       </c>
@@ -9129,7 +11517,7 @@
         <v>9.1954022988505694E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -9209,7 +11597,7 @@
         <v>9.9585062240663894E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -9289,7 +11677,7 @@
         <v>8.5790884718498703E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -9369,7 +11757,7 @@
         <v>3.8370180887995599E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -9449,7 +11837,7 @@
         <v>3.8734667527437101E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>128</v>
       </c>
@@ -9529,7 +11917,7 @@
         <v>1.06780565936999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -9609,7 +11997,7 @@
         <v>9.6501809408926394E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>130</v>
       </c>
@@ -9689,7 +12077,7 @@
         <v>4.5540796963946901E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>131</v>
       </c>
@@ -9769,7 +12157,7 @@
         <v>7.7050082553659898E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>132</v>
       </c>
@@ -9849,7 +12237,7 @@
         <v>4.0840140023337204E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>133</v>
       </c>
@@ -9929,7 +12317,7 @@
         <v>9.9009900990098994E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -10009,7 +12397,7 @@
         <v>5.0377833753148596E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -10089,7 +12477,7 @@
         <v>5.3475935828877002E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -10169,7 +12557,7 @@
         <v>4.8543689320388302E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -10249,7 +12637,7 @@
         <v>9.2236740968485807E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>138</v>
       </c>
@@ -10329,7 +12717,7 @@
         <v>7.5471698113207496E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>139</v>
       </c>
@@ -10409,7 +12797,7 @@
         <v>3.3112582781456902E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>140</v>
       </c>
@@ -10489,7 +12877,7 @@
         <v>3.4482758620689698E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -10569,7 +12957,7 @@
         <v>3.74941415403843E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -10649,7 +13037,7 @@
         <v>6.7739204064352198E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>143</v>
       </c>
@@ -10729,7 +13117,7 @@
         <v>7.18562874251497E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>144</v>
       </c>
@@ -10809,7 +13197,7 @@
         <v>5.5172413793103401E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>145</v>
       </c>
@@ -10889,7 +13277,7 @@
         <v>6.6930670979976599E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>146</v>
       </c>
@@ -10969,7 +13357,7 @@
         <v>5.6338028169014096E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>147</v>
       </c>
@@ -11049,7 +13437,7 @@
         <v>7.9365079365079395E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>148</v>
       </c>
@@ -11129,7 +13517,7 @@
         <v>8.1632653061224497E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -11209,7 +13597,7 @@
         <v>8.5714285714285701E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>150</v>
       </c>
@@ -11289,7 +13677,7 @@
         <v>8.5166784953868008E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -11369,7 +13757,7 @@
         <v>7.6923076923076901E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -11449,7 +13837,7 @@
         <v>7.8226857887874791E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>153</v>
       </c>
@@ -11529,7 +13917,7 @@
         <v>3.9222095113580603E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>154</v>
       </c>
@@ -11609,7 +13997,7 @@
         <v>4.11522633744856E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>155</v>
       </c>
@@ -11689,7 +14077,7 @@
         <v>7.1047957371225597E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -11769,7 +14157,7 @@
         <v>6.6006600660065999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>157</v>
       </c>
@@ -11849,7 +14237,7 @@
         <v>6.0301507537688396E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>158</v>
       </c>
@@ -11929,7 +14317,7 @@
         <v>4.87408610885459E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>159</v>
       </c>
@@ -12009,7 +14397,7 @@
         <v>5.0203953561343004E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>160</v>
       </c>
@@ -12089,7 +14477,7 @@
         <v>5.79962302450341E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>161</v>
       </c>
@@ -12169,7 +14557,7 @@
         <v>5.3262316910785597E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -12249,7 +14637,7 @@
         <v>5.6899004267425297E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>163</v>
       </c>
@@ -12329,7 +14717,7 @@
         <v>4.5061960195268503E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>164</v>
       </c>
@@ -12409,7 +14797,7 @@
         <v>2.9806259314456001E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>165</v>
       </c>
@@ -12489,7 +14877,7 @@
         <v>2.1952290355627098E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>166</v>
       </c>
@@ -12569,7 +14957,7 @@
         <v>5.5522895029067902E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -12649,7 +15037,7 @@
         <v>3.6899703553885401E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>168</v>
       </c>
@@ -12729,7 +15117,7 @@
         <v>5.9356966199505404E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>169</v>
       </c>
@@ -12809,7 +15197,7 @@
         <v>6.9524913093858597E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>170</v>
       </c>
@@ -12889,7 +15277,7 @@
         <v>1.4726378625713301E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -12969,7 +15357,7 @@
         <v>6.9204152249134898E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>172</v>
       </c>
@@ -13049,7 +15437,7 @@
         <v>6.7911714770797996E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>173</v>
       </c>
@@ -13129,7 +15517,7 @@
         <v>4.6838407494145199E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>174</v>
       </c>
@@ -13209,7 +15597,7 @@
         <v>4.3620501635768796E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>175</v>
       </c>
@@ -13289,7 +15677,7 @@
         <v>6.0606060606060597E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -13369,7 +15757,7 @@
         <v>3.9900249376558601E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>177</v>
       </c>
@@ -13449,7 +15837,7 @@
         <v>7.7369439071566697E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>178</v>
       </c>
@@ -13529,7 +15917,7 @@
         <v>7.64818355640535E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -13609,7 +15997,7 @@
         <v>8.3044982698961892E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -13689,7 +16077,7 @@
         <v>1.5655577299412901E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>181</v>
       </c>
@@ -13769,7 +16157,7 @@
         <v>1.40515222482436E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>182</v>
       </c>
@@ -13849,7 +16237,7 @@
         <v>8.2474226804123696E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>183</v>
       </c>
@@ -13929,7 +16317,7 @@
         <v>4.0221216691804897E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>184</v>
       </c>
@@ -14009,7 +16397,7 @@
         <v>5.40540540540541E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>185</v>
       </c>
@@ -14089,7 +16477,7 @@
         <v>4.4893378226711599E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>186</v>
       </c>
@@ -14169,7 +16557,7 @@
         <v>4.3196544276457903E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>187</v>
       </c>
@@ -14249,7 +16637,7 @@
         <v>4.4792833146696503E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>188</v>
       </c>
@@ -14329,7 +16717,7 @@
         <v>2.2026431718061702E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>189</v>
       </c>
@@ -14409,7 +16797,7 @@
         <v>1.953125E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>190</v>
       </c>
@@ -14489,7 +16877,7 @@
         <v>2.5125628140703501E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>191</v>
       </c>
@@ -14569,7 +16957,7 @@
         <v>1.6977928692699499E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>192</v>
       </c>
@@ -14649,7 +17037,7 @@
         <v>3.8610038610038598E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>193</v>
       </c>
@@ -14729,7 +17117,7 @@
         <v>3.0674846625766898E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>194</v>
       </c>
@@ -14809,7 +17197,7 @@
         <v>3.8022813688212902E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>195</v>
       </c>
@@ -14889,7 +17277,7 @@
         <v>3.8759689922480598E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>196</v>
       </c>
@@ -14969,7 +17357,7 @@
         <v>3.0030030030029999E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>197</v>
       </c>
@@ -15049,7 +17437,7 @@
         <v>5.2966101694915304E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>198</v>
       </c>
@@ -15129,7 +17517,7 @@
         <v>6.0240963855421699E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>199</v>
       </c>
@@ -15209,7 +17597,7 @@
         <v>1.1661807580174899E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>200</v>
       </c>
@@ -15289,7 +17677,7 @@
         <v>1.4018691588785E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>201</v>
       </c>
@@ -15369,7 +17757,7 @@
         <v>2.8169014084507001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>202</v>
       </c>
@@ -15449,7 +17837,7 @@
         <v>1.9867549668874198E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>203</v>
       </c>
@@ -15529,7 +17917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>204</v>
       </c>
@@ -15609,7 +17997,7 @@
         <v>1.8050541516245501E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>205</v>
       </c>
@@ -15689,7 +18077,7 @@
         <v>1.9880715705765401E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>206</v>
       </c>
@@ -15769,7 +18157,7 @@
         <v>1.5313935681470099E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>207</v>
       </c>
@@ -15849,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>208</v>
       </c>
@@ -15929,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>209</v>
       </c>
@@ -16009,7 +18397,7 @@
         <v>3.2751091703056802E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>210</v>
       </c>
@@ -16089,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>211</v>
       </c>
@@ -16169,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>212</v>
       </c>
@@ -16249,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>213</v>
       </c>
@@ -16329,7 +18717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>214</v>
       </c>
@@ -16409,7 +18797,7 @@
         <v>4.7619047619047597E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>215</v>
       </c>
@@ -16489,7 +18877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>216</v>
       </c>
@@ -16569,7 +18957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>217</v>
       </c>
@@ -16649,7 +19037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>218</v>
       </c>
@@ -16729,7 +19117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>219</v>
       </c>
@@ -16809,7 +19197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>220</v>
       </c>
@@ -16889,7 +19277,7 @@
         <v>3.1446540880503099E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>221</v>
       </c>
@@ -16969,7 +19357,7 @@
         <v>3.9840637450199202E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>222</v>
       </c>
@@ -17049,7 +19437,7 @@
         <v>4.65116279069767E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>223</v>
       </c>
@@ -17129,7 +19517,7 @@
         <v>3.1578947368421E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>224</v>
       </c>
@@ -17209,7 +19597,7 @@
         <v>4.3668122270742399E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>225</v>
       </c>
@@ -17289,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>226</v>
       </c>
@@ -17369,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>227</v>
       </c>
@@ -17449,7 +19837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>228</v>
       </c>
@@ -17529,7 +19917,7 @@
         <v>2.1869874248223102E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>229</v>
       </c>
@@ -17609,7 +19997,7 @@
         <v>1.5278838808250601E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>230</v>
       </c>
@@ -17689,7 +20077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>231</v>
       </c>
@@ -17769,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>232</v>
       </c>
@@ -17849,7 +20237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>233</v>
       </c>
@@ -17929,7 +20317,7 @@
         <v>4.3134435657800098E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>234</v>
       </c>
@@ -18009,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>235</v>
       </c>
@@ -18089,7 +20477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>236</v>
       </c>
@@ -18169,7 +20557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>237</v>
       </c>
@@ -18249,7 +20637,7 @@
         <v>1.73817317998783E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>238</v>
       </c>
@@ -18329,7 +20717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>239</v>
       </c>
@@ -18409,7 +20797,7 @@
         <v>1.9064269018245299E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>240</v>
       </c>
@@ -18489,7 +20877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>241</v>
       </c>
@@ -18569,7 +20957,7 @@
         <v>5.2700922266139703E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>242</v>
       </c>
@@ -18649,7 +21037,7 @@
         <v>3.5830359534132902E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>243</v>
       </c>
@@ -18729,7 +21117,7 @@
         <v>2.0753305063606902E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>244</v>
       </c>
@@ -18809,7 +21197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>245</v>
       </c>
@@ -18889,7 +21277,7 @@
         <v>5.6179775280898901E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>246</v>
       </c>
@@ -18969,7 +21357,7 @@
         <v>3.7128712871287101E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>247</v>
       </c>
@@ -19049,7 +21437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>248</v>
       </c>
@@ -19129,7 +21517,7 @@
         <v>1.7865650309671301E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>249</v>
       </c>
@@ -19209,7 +21597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>250</v>
       </c>
@@ -19289,7 +21677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>251</v>
       </c>
@@ -19369,7 +21757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>252</v>
       </c>
@@ -19449,7 +21837,7 @@
         <v>2.0833333333333298E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>253</v>
       </c>
@@ -19529,7 +21917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>254</v>
       </c>
@@ -19609,7 +21997,7 @@
         <v>2.7748872702046501E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>255</v>
       </c>
@@ -19689,7 +22077,7 @@
         <v>3.28947368421053E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>256</v>
       </c>
@@ -19769,7 +22157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>257</v>
       </c>
@@ -19849,7 +22237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -19929,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>259</v>
       </c>
@@ -20009,7 +22397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>260</v>
       </c>
@@ -20089,7 +22477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>261</v>
       </c>
@@ -20169,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>262</v>
       </c>
@@ -20249,7 +22637,7 @@
         <v>7.0028011204481804E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>263</v>
       </c>
@@ -20329,7 +22717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>264</v>
       </c>
@@ -20409,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>265</v>
       </c>
@@ -20489,7 +22877,7 @@
         <v>4.4742729306487703E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>266</v>
       </c>
@@ -20569,7 +22957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>267</v>
       </c>
@@ -20649,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>268</v>
       </c>
@@ -20729,7 +23117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>269</v>
       </c>
@@ -20809,7 +23197,7 @@
         <v>4.1666666666666701E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>270</v>
       </c>
@@ -20889,7 +23277,7 @@
         <v>5.4495912806539499E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>271</v>
       </c>
@@ -20969,7 +23357,7 @@
         <v>4.6296296296296302E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>272</v>
       </c>
@@ -21049,7 +23437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>273</v>
       </c>
@@ -21129,7 +23517,7 @@
         <v>5.8988764044943798E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>274</v>
       </c>
@@ -21209,7 +23597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>275</v>
       </c>
@@ -21289,7 +23677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>276</v>
       </c>
@@ -21369,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>277</v>
       </c>
@@ -21449,7 +23837,7 @@
         <v>3.6379506014928399E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>278</v>
       </c>
@@ -21529,7 +23917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>279</v>
       </c>
@@ -21609,8 +23997,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A256" s="6" t="s">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A256" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B256">
@@ -21950,4 +24338,2056 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F81CEF-8DBF-7B44-9ED8-63577A3035FB}">
+  <dimension ref="A1:B255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B254" sqref="A1:B254"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9.2024539877300603E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.6333197223356501E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2.2417934347478002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.9575596816976093E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.8496669838249294E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.05540897097625E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3.2388663967611302E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.0889292196007301E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9.8280098280098295E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8.6956521739130401E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9.6501809408926394E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1.5706806282722498E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1.6282225237449099E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6.1585835257890699E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7.8451436855120696E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7.8469838155958808E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.47930639438531E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8.1344054062509798E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4">
+        <v>7.3548726030995496E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1.22199592668024E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7.5009376172021497E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.2591815320042001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8.3358925986048299E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7.4147305981215996E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="4">
+        <v>7.5901328273244801E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1.33046370573273E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6.7001675041875996E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4">
+        <v>7.6311605723370403E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6.6611157368859303E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6.4205457463884404E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1.0657531639547101E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.1033426894616001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4.4264360379992502E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="4">
+        <v>9.3348891481913592E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="4">
+        <v>8.33466901747075E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1.03408503360776E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1.45161290322581E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1.25826746249395E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1.4650225857648601E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1.681806740956E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4.9420001372777796E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2.8346555538059402E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1.86974135244624E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1.8858040859088501E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="4">
+        <v>9.2592592592592605E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1.03336921420883E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="4">
+        <v>8.9285714285714298E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1.06194690265487E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="4">
+        <v>9.0090090090090107E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="4">
+        <v>8.5984522785898503E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="4">
+        <v>9.5162569389373505E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="4">
+        <v>9.6463022508038593E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="4">
+        <v>9.1723083642716793E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2.2099447513812199E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1.6842105263157901E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1.8292682926829298E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1.6736401673640201E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="4">
+        <v>1.8461538461538501E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1.5655577299412901E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="4">
+        <v>9.7560975609756097E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="4">
+        <v>8.3044982698961892E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="4">
+        <v>1.5936254980079698E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="4">
+        <v>8.3420229405630902E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1.18577075098814E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="4">
+        <v>1.27959053103007E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="4">
+        <v>1.9480519480519501E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1.3157894736842099E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1.30363932645301E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1.27931769722815E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="4">
+        <v>1.0810810810810799E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="4">
+        <v>8.7164959686206103E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="4">
+        <v>1.09389243391067E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="4">
+        <v>7.69895726403371E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="4">
+        <v>6.8330644395938099E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="4">
+        <v>4.6906169449425503E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="4">
+        <v>3.80057592067609E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="4">
+        <v>1.8425386087498299E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="4">
+        <v>7.1552693447817601E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="4">
+        <v>7.1301247771836003E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="4">
+        <v>8.0645161290322596E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="4">
+        <v>6.9825436408977497E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="4">
+        <v>8.5106382978723406E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="4">
+        <v>1.26143172500788E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="4">
+        <v>1.45454545454545E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1.9441069258809202E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="4">
+        <v>1.0413180110826E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="4">
+        <v>8.6918730986527606E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="4">
+        <v>9.5877277085330802E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1.64880461665293E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="4">
+        <v>7.7021822849807397E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="4">
+        <v>6.9005175388154099E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" s="4">
+        <v>8.8691796008869197E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1.8264840182648401E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="4">
+        <v>9.2807424593967496E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1.07913669064748E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1.97628458498024E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="4">
+        <v>9.1954022988505694E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="4">
+        <v>9.9585062240663894E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="4">
+        <v>9.6514745308310997E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="4">
+        <v>8.7703270601132803E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="4">
+        <v>7.7469335054874099E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1.06780565936999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" s="4">
+        <v>9.6501809408926394E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1.8216318785578799E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1.98128783709411E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="4">
+        <v>3.7339556592765499E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="4">
+        <v>2.9702970297029702E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1.00755667506297E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1.06951871657754E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B111" s="4">
+        <v>9.7087378640776708E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="4">
+        <v>9.2236740968485807E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="4">
+        <v>7.5471698113207496E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="4">
+        <v>6.6225165562913899E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="4">
+        <v>1.37931034482759E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1.3122949539134499E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1.52413209144793E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1.43712574850299E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="4">
+        <v>5.5172413793103401E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1.4724747615594801E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="4">
+        <v>5.6338028169014096E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122" s="4">
+        <v>9.2592592592592605E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="4">
+        <v>8.1632653061224497E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1.7142857142857099E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="4">
+        <v>2.5550035486160399E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="4">
+        <v>3.5897435897435902E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="4">
+        <v>7.0404172099087406E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1.37277332897532E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="4">
+        <v>1.6460905349794198E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="4">
+        <v>1.42095914742451E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" s="4">
+        <v>1.32013201320132E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="4">
+        <v>1.8090452261306501E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="4">
+        <v>1.7059301380991099E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="4">
+        <v>2.82397238782554E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1.0439321444106101E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B136" s="4">
+        <v>1.06524633821571E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1.1379800853485099E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B138" s="4">
+        <v>4.5061960195268503E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B139" s="4">
+        <v>5.9612518628912098E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="4">
+        <v>6.5856871066881303E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="4">
+        <v>1.5677052714089701E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B142" s="4">
+        <v>3.0296598707400601E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B143" s="4">
+        <v>3.7098103874690799E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="4">
+        <v>6.9524913093858597E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" s="4">
+        <v>6.8372472190811797E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B146" s="4">
+        <v>1.3840830449827E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147" s="4">
+        <v>6.7911714770797996E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="4">
+        <v>9.3676814988290398E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B149" s="4">
+        <v>8.7241003271537592E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150" s="4">
+        <v>9.6969696969697004E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B151" s="4">
+        <v>4.9875311720698296E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B152" s="4">
+        <v>7.7369439071566697E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="4">
+        <v>7.64818355640535E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B154" s="4">
+        <v>1.3840830449827E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155" s="4">
+        <v>7.8277886497064592E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156" s="4">
+        <v>9.3676814988290398E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" s="4">
+        <v>8.2474226804123696E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" s="4">
+        <v>1.00553041729512E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1.0810810810810799E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" s="4">
+        <v>4.4893378226711599E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161" s="4">
+        <v>4.3196544276457903E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B162" s="4">
+        <v>8.9585666293393092E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" s="4">
+        <v>7.3421439060205604E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B164" s="4">
+        <v>7.8125E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165" s="4">
+        <v>1.5075376884422099E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B166" s="4">
+        <v>6.7911714770797996E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B167" s="4">
+        <v>1.5444015444015399E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B168" s="4">
+        <v>1.22699386503067E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" s="4">
+        <v>7.6045627376425803E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170" s="4">
+        <v>1.5503875968992199E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B171" s="4">
+        <v>1.2012012012012E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B172" s="4">
+        <v>1.90677966101695E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B173" s="4">
+        <v>1.8072289156626498E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B174" s="4">
+        <v>1.1661807580174899E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" s="4">
+        <v>9.3457943925233603E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176" s="4">
+        <v>1.4084507042253501E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177" s="4">
+        <v>1.58940397350993E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178" s="4">
+        <v>1.07913669064748E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179" s="4">
+        <v>2.5270758122743701E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B180" s="4">
+        <v>7.9522862823061605E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B181" s="4">
+        <v>6.1255742725880597E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B182" s="4">
+        <v>6.62178567487032E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B183" s="4">
+        <v>1.52477763659466E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B184" s="4">
+        <v>1.31004366812227E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B185" s="4">
+        <v>1.10752191970466E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B186" s="4">
+        <v>2.2360248447205001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B187" s="4">
+        <v>2.3076923076923099E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B188" s="4">
+        <v>1.6535137166478801E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1.9047619047619001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B190" s="4">
+        <v>2.1505376344085999E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B191" s="4">
+        <v>2.0547945205479499E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B192" s="4">
+        <v>2.01005025125628E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B193" s="4">
+        <v>2.3529411764705899E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B194" s="4">
+        <v>1.62162162162162E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="4">
+        <v>1.88679245283019E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B196" s="4">
+        <v>2.3904382470119501E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B197" s="4">
+        <v>2.7906976744186001E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B198" s="4">
+        <v>3.1578947368420998E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199" s="4">
+        <v>5.2401746724890799E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B200" s="4">
+        <v>6.7132867132867105E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B201" s="4">
+        <v>0.17592181252776501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B202" s="4">
+        <v>8.2332761578044603E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B203" s="4">
+        <v>2.62438490978677E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B204" s="4">
+        <v>3.4224598930481298E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B205" s="4">
+        <v>8.5056113408151196E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B206" s="4">
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B207" s="4">
+        <v>5.0034746351633103E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B208" s="4">
+        <v>6.9015097052480198E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B209" s="4">
+        <v>5.01043841336117E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B210" s="4">
+        <v>6.3618290258449298E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B211" s="4">
+        <v>9.2909535452322806E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B212" s="4">
+        <v>0.159911932558881</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B213" s="4">
+        <v>0.324487146195793</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B214" s="4">
+        <v>0.34440882417439</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B215" s="4">
+        <v>0.114814193944263</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B216" s="4">
+        <v>8.4321475625823497E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B217" s="4">
+        <v>9.3158934788745706E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B218" s="4">
+        <v>7.0561237216263395E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B219" s="4">
+        <v>1.8957345971564E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B220" s="4">
+        <v>1.1235955056179799E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B221" s="4">
+        <v>1.4851485148514899E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B222" s="4">
+        <v>1.54499806875241E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B223" s="4">
+        <v>1.0719390185802801E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B224" s="4">
+        <v>4.3165467625899297E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B225" s="4">
+        <v>6.4308681672025697E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B226" s="4">
+        <v>8.5767194048276506E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B227" s="4">
+        <v>8.3333333333333297E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B228" s="4">
+        <v>3.4393809114359399E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B229" s="4">
+        <v>1.24869927159209E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B230" s="4">
+        <v>6.5789473684210497E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B231" s="4">
+        <v>6.5005417118093201E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B232" s="4">
+        <v>6.4377682403433502E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B233" s="4">
+        <v>7.8834209268991897E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B234" s="4">
+        <v>7.41717488050107E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B235" s="4">
+        <v>1.12834978843441E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B236" s="4">
+        <v>2.96296296296296E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B237" s="4">
+        <v>4.4817927170868299E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B238" s="4">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B239" s="4">
+        <v>4.0586245772266098E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B240" s="4">
+        <v>4.4742729306487698E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B241" s="4">
+        <v>8.6786296900489401E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B242" s="4">
+        <v>6.4239828693790097E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B243" s="4">
+        <v>3.80348652931854E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B244" s="4">
+        <v>1.6666666666666701E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B245" s="4">
+        <v>2.17983651226158E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B246" s="4">
+        <v>9.2592592592592605E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B247" s="4">
+        <v>9.5057034220532299E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B248" s="4">
+        <v>1.1797752808988799E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B249" s="4">
+        <v>1.18364418938307E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B250" s="4">
+        <v>1.2010509195546099E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B251" s="4">
+        <v>2.1480878763222098E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B252" s="4">
+        <v>2.2197664687075E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B253" s="4">
+        <v>3.7389379635736797E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B254" s="4">
+        <v>1.35949326185424E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="5"/>
+      <c r="B255" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>